--- a/data/trans_camb/P14_x_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Edad-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,61</t>
+          <t>0,25; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,54</t>
+          <t>0,8; 6,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,26</t>
+          <t>1,56; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,03</t>
+          <t>3,17; 11,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,24</t>
+          <t>1,19; 3,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,65</t>
+          <t>2,52; 7,0</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,22</t>
+          <t>0,49; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 5,46</t>
+          <t>1,32; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,96</t>
+          <t>1,41; 3,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,07</t>
+          <t>5,27; 11,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,62</t>
+          <t>1,14; 2,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,03</t>
+          <t>3,88; 7,28</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,8</t>
+          <t>1,43; 3,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,64</t>
+          <t>4,14; 8,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,84</t>
+          <t>4,85; 8,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,62</t>
+          <t>5,61; 9,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,76</t>
+          <t>3,57; 5,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,37</t>
+          <t>5,48; 8,33</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,84</t>
+          <t>2,62; 5,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,67</t>
+          <t>5,31; 9,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,83</t>
+          <t>9,4; 14,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,89</t>
+          <t>10,95; 15,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,53</t>
+          <t>6,42; 9,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,84</t>
+          <t>8,4; 11,68</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,24</t>
+          <t>4,47; 9,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,32</t>
+          <t>7,52; 12,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,95</t>
+          <t>14,52; 21,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,27; 20,03</t>
+          <t>15,38; 20,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,77</t>
+          <t>10,43; 14,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,05; 15,53</t>
+          <t>12,01; 15,45</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,18</t>
+          <t>2,84; 6,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,28</t>
+          <t>5,02; 8,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,9</t>
+          <t>13,32; 19,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,67</t>
+          <t>10,01; 16,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,72</t>
+          <t>9,38; 12,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,54</t>
+          <t>8,91; 12,59</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,72; 3,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,13</t>
+          <t>5,37; 7,1</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,19; 11,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,9</t>
+          <t>10,72; 13,0</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,18; 7,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,49; 9,89</t>
+          <t>8,53; 9,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_x_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_x_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,65</t>
+          <t>0,33; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,37</t>
+          <t>1,47; 5,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,28</t>
+          <t>1,21; 3,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,3</t>
+          <t>0,5; 2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,9</t>
+          <t>1,34; 3,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,7</t>
+          <t>1,15; 2,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,95</t>
+          <t>1,44; 4,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,66</t>
+          <t>5,13; 8,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,78</t>
+          <t>3,61; 5,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,95</t>
+          <t>2,66; 5,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,75</t>
+          <t>9,34; 14,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,61</t>
+          <t>6,48; 9,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,17</t>
+          <t>4,36; 9,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,63</t>
+          <t>14,34; 21,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,67</t>
+          <t>10,19; 14,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,07</t>
+          <t>2,97; 5,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,32; 19,19</t>
+          <t>13,5; 19,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>9,38; 12,94</t>
+          <t>9,41; 12,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,92</t>
+          <t>2,66; 3,89</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,19; 11,24</t>
+          <t>9,26; 11,41</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,38</t>
+          <t>6,16; 7,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
